--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_T55_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_T55_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2.026185291058083E-07</v>
+        <v>0.03429600028756437</v>
       </c>
       <c r="C2">
-        <v>6.752006303172386E-07</v>
+        <v>0.7101898576629941</v>
       </c>
       <c r="D2">
-        <v>2.666983691600854E-12</v>
+        <v>1.289702394100111</v>
       </c>
       <c r="E2">
-        <v>1.6330902276362E-06</v>
+        <v>1.135650647910752</v>
       </c>
       <c r="F2">
-        <v>1.664876689494737E-06</v>
+        <v>1.168041881107486</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03429600028756437</v>
+        <v>-0.0941935348587556</v>
       </c>
       <c r="C3">
-        <v>0.7101898576629941</v>
+        <v>0.7263696581451928</v>
       </c>
       <c r="D3">
-        <v>1.289702394100111</v>
+        <v>1.27951414055504</v>
       </c>
       <c r="E3">
-        <v>1.135650647910752</v>
+        <v>1.131156107951082</v>
       </c>
       <c r="F3">
-        <v>1.168041881107486</v>
+        <v>1.161919457602362</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0941935348587556</v>
+        <v>0.01452822689458977</v>
       </c>
       <c r="C4">
-        <v>0.7263696581451928</v>
+        <v>0.6449262614402625</v>
       </c>
       <c r="D4">
-        <v>1.27951414055504</v>
+        <v>0.6594288688367413</v>
       </c>
       <c r="E4">
-        <v>1.131156107951082</v>
+        <v>0.8120522574543718</v>
       </c>
       <c r="F4">
-        <v>1.161919457602362</v>
+        <v>0.8385497318331077</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.01452822689458977</v>
+        <v>0.1214336542319591</v>
       </c>
       <c r="C5">
-        <v>0.6449262614402625</v>
+        <v>0.5559322037065559</v>
       </c>
       <c r="D5">
-        <v>0.6594288688367413</v>
+        <v>0.6436164972988249</v>
       </c>
       <c r="E5">
-        <v>0.8120522574543718</v>
+        <v>0.8022571266737522</v>
       </c>
       <c r="F5">
-        <v>0.8385497318331077</v>
+        <v>0.8208469264720462</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1214336542319591</v>
+        <v>0.110076918177882</v>
       </c>
       <c r="C6">
-        <v>0.5559322037065559</v>
+        <v>0.6331327781440725</v>
       </c>
       <c r="D6">
-        <v>0.6436164972988249</v>
+        <v>0.8344370595392797</v>
       </c>
       <c r="E6">
-        <v>0.8022571266737522</v>
+        <v>0.9134752648754534</v>
       </c>
       <c r="F6">
-        <v>0.8208469264720462</v>
+        <v>0.941050225208</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.110076918177882</v>
+        <v>0.1202220011512185</v>
       </c>
       <c r="C7">
-        <v>0.6331327781440725</v>
+        <v>0.7253744013351844</v>
       </c>
       <c r="D7">
-        <v>0.8344370595392797</v>
+        <v>1.112590511420735</v>
       </c>
       <c r="E7">
-        <v>0.9134752648754534</v>
+        <v>1.054794061142143</v>
       </c>
       <c r="F7">
-        <v>0.941050225208</v>
+        <v>1.090710141917454</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1202220011512185</v>
+        <v>0.1658066239972836</v>
       </c>
       <c r="C8">
-        <v>0.7253744013351844</v>
+        <v>0.6309408131211106</v>
       </c>
       <c r="D8">
-        <v>1.112590511420735</v>
+        <v>0.7997859358034983</v>
       </c>
       <c r="E8">
-        <v>1.054794061142143</v>
+        <v>0.8943075174700805</v>
       </c>
       <c r="F8">
-        <v>1.090710141917454</v>
+        <v>0.9178794331058292</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1658066239972836</v>
+        <v>0.229040555996801</v>
       </c>
       <c r="C9">
-        <v>0.6309408131211106</v>
+        <v>0.6860211576689477</v>
       </c>
       <c r="D9">
-        <v>0.7997859358034983</v>
+        <v>0.8668260477761954</v>
       </c>
       <c r="E9">
-        <v>0.8943075174700805</v>
+        <v>0.9310349337034542</v>
       </c>
       <c r="F9">
-        <v>0.9178794331058292</v>
+        <v>0.9464687626294693</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.229040555996801</v>
+        <v>0.2065580353529775</v>
       </c>
       <c r="C10">
-        <v>0.6860211576689477</v>
+        <v>0.8649197065923389</v>
       </c>
       <c r="D10">
-        <v>0.8668260477761954</v>
+        <v>1.231080489777346</v>
       </c>
       <c r="E10">
-        <v>0.9310349337034542</v>
+        <v>1.109540666121502</v>
       </c>
       <c r="F10">
-        <v>0.9464687626294693</v>
+        <v>1.149112830650219</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2065580353529775</v>
+        <v>0.2295082277971592</v>
       </c>
       <c r="C11">
-        <v>0.8649197065923389</v>
+        <v>0.7023734988951453</v>
       </c>
       <c r="D11">
-        <v>1.231080489777346</v>
+        <v>1.00369417988346</v>
       </c>
       <c r="E11">
-        <v>1.109540666121502</v>
+        <v>1.001845387214744</v>
       </c>
       <c r="F11">
-        <v>1.149112830650219</v>
+        <v>1.034358580190629</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_T55_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_T55_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03429600028756437</v>
+        <v>2.026185291058083E-07</v>
       </c>
       <c r="C2">
-        <v>0.7101898576629941</v>
+        <v>6.752006303172386E-07</v>
       </c>
       <c r="D2">
-        <v>1.289702394100111</v>
+        <v>2.666983691600854E-12</v>
       </c>
       <c r="E2">
-        <v>1.135650647910752</v>
+        <v>1.6330902276362E-06</v>
       </c>
       <c r="F2">
-        <v>1.168041881107486</v>
+        <v>1.664876689494737E-06</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0941935348587556</v>
+        <v>0.03429600028756437</v>
       </c>
       <c r="C3">
-        <v>0.7263696581451928</v>
+        <v>0.7101898576629941</v>
       </c>
       <c r="D3">
-        <v>1.27951414055504</v>
+        <v>1.289702394100111</v>
       </c>
       <c r="E3">
-        <v>1.131156107951082</v>
+        <v>1.135650647910752</v>
       </c>
       <c r="F3">
-        <v>1.161919457602362</v>
+        <v>1.168041881107486</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01452822689458977</v>
+        <v>-0.0941935348587556</v>
       </c>
       <c r="C4">
-        <v>0.6449262614402625</v>
+        <v>0.7263696581451928</v>
       </c>
       <c r="D4">
-        <v>0.6594288688367413</v>
+        <v>1.27951414055504</v>
       </c>
       <c r="E4">
-        <v>0.8120522574543718</v>
+        <v>1.131156107951082</v>
       </c>
       <c r="F4">
-        <v>0.8385497318331077</v>
+        <v>1.161919457602362</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1214336542319591</v>
+        <v>0.01452822689458977</v>
       </c>
       <c r="C5">
-        <v>0.5559322037065559</v>
+        <v>0.6449262614402625</v>
       </c>
       <c r="D5">
-        <v>0.6436164972988249</v>
+        <v>0.6594288688367413</v>
       </c>
       <c r="E5">
-        <v>0.8022571266737522</v>
+        <v>0.8120522574543718</v>
       </c>
       <c r="F5">
-        <v>0.8208469264720462</v>
+        <v>0.8385497318331077</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.110076918177882</v>
+        <v>0.1214336542319591</v>
       </c>
       <c r="C6">
-        <v>0.6331327781440725</v>
+        <v>0.5559322037065559</v>
       </c>
       <c r="D6">
-        <v>0.8344370595392797</v>
+        <v>0.6436164972988249</v>
       </c>
       <c r="E6">
-        <v>0.9134752648754534</v>
+        <v>0.8022571266737522</v>
       </c>
       <c r="F6">
-        <v>0.941050225208</v>
+        <v>0.8208469264720462</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1202220011512185</v>
+        <v>0.110076918177882</v>
       </c>
       <c r="C7">
-        <v>0.7253744013351844</v>
+        <v>0.6331327781440725</v>
       </c>
       <c r="D7">
-        <v>1.112590511420735</v>
+        <v>0.8344370595392797</v>
       </c>
       <c r="E7">
-        <v>1.054794061142143</v>
+        <v>0.9134752648754534</v>
       </c>
       <c r="F7">
-        <v>1.090710141917454</v>
+        <v>0.941050225208</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1658066239972836</v>
+        <v>0.1202220011512185</v>
       </c>
       <c r="C8">
-        <v>0.6309408131211106</v>
+        <v>0.7253744013351844</v>
       </c>
       <c r="D8">
-        <v>0.7997859358034983</v>
+        <v>1.112590511420735</v>
       </c>
       <c r="E8">
-        <v>0.8943075174700805</v>
+        <v>1.054794061142143</v>
       </c>
       <c r="F8">
-        <v>0.9178794331058292</v>
+        <v>1.090710141917454</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.229040555996801</v>
+        <v>0.1658066239972836</v>
       </c>
       <c r="C9">
-        <v>0.6860211576689477</v>
+        <v>0.6309408131211106</v>
       </c>
       <c r="D9">
-        <v>0.8668260477761954</v>
+        <v>0.7997859358034983</v>
       </c>
       <c r="E9">
-        <v>0.9310349337034542</v>
+        <v>0.8943075174700805</v>
       </c>
       <c r="F9">
-        <v>0.9464687626294693</v>
+        <v>0.9178794331058292</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2065580353529775</v>
+        <v>0.229040555996801</v>
       </c>
       <c r="C10">
-        <v>0.8649197065923389</v>
+        <v>0.6860211576689477</v>
       </c>
       <c r="D10">
-        <v>1.231080489777346</v>
+        <v>0.8668260477761954</v>
       </c>
       <c r="E10">
-        <v>1.109540666121502</v>
+        <v>0.9310349337034542</v>
       </c>
       <c r="F10">
-        <v>1.149112830650219</v>
+        <v>0.9464687626294693</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2295082277971592</v>
+        <v>0.2065580353529775</v>
       </c>
       <c r="C11">
-        <v>0.7023734988951453</v>
+        <v>0.8649197065923389</v>
       </c>
       <c r="D11">
-        <v>1.00369417988346</v>
+        <v>1.231080489777346</v>
       </c>
       <c r="E11">
-        <v>1.001845387214744</v>
+        <v>1.109540666121502</v>
       </c>
       <c r="F11">
-        <v>1.034358580190629</v>
+        <v>1.149112830650219</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
